--- a/OcorrenciaMensal(Criminal)-Peruíbe_2025.xlsx
+++ b/OcorrenciaMensal(Criminal)-Peruíbe_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/Base de dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AB38567D4A2761FC635254AD04C7FF4EDC8DD9A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6958C3-5CC0-4F08-8984-BD5C0F6A97F7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AB38567D4A2761FC635254AD04C7FF4EDC8DD9A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D5C659-93F0-4C7F-BDE9-D32B0A8F393B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="73">
   <si>
     <t>Natureza</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Peruíbe</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -613,15 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +670,11 @@
       <c r="O1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -714,8 +720,11 @@
       <c r="O2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -759,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -803,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -847,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -891,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -935,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -979,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
